--- a/xlsx/データアナリティクス基礎/演習問題_データアナリティクス基礎/第8章演習問題2_百貨店の衣料品売上高.xlsx
+++ b/xlsx/データアナリティクス基礎/演習問題_データアナリティクス基礎/第8章演習問題2_百貨店の衣料品売上高.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JSTORAGE.jmam.local\users$\JM0835\山地の仕事\書籍\統計検定データサイエンス\DS基礎\データセット\演習問題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY810251\python\dataAnalyticsBasic\xlsx\データアナリティクス基礎\演習問題_データアナリティクス基礎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FCE90D-E0E9-41A6-9493-A60EE25A5127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1084C2-8A78-46B9-9C74-BE3CAA47DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="14856" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10110" yWindow="0" windowWidth="28380" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="データ" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="データ" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>計</t>
   </si>
@@ -109,12 +110,148 @@
   <si>
     <t>7月</t>
   </si>
+  <si>
+    <t>月別売上平均</t>
+    <rPh sb="0" eb="2">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2010/7指数 計</t>
+    <rPh sb="6" eb="8">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寄与度 
+紳士服</t>
+    <rPh sb="0" eb="3">
+      <t>キヨド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同月比増加率 計</t>
+    <rPh sb="0" eb="3">
+      <t>ドウゲツヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>回帰統計</t>
+  </si>
+  <si>
+    <t>重相関 R</t>
+  </si>
+  <si>
+    <t>重決定 R2</t>
+  </si>
+  <si>
+    <t>補正 R2</t>
+  </si>
+  <si>
+    <t>標準誤差</t>
+  </si>
+  <si>
+    <t>観測数</t>
+  </si>
+  <si>
+    <t>分散分析表</t>
+  </si>
+  <si>
+    <t>回帰</t>
+  </si>
+  <si>
+    <t>残差</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>切片</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>変動</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>観測された分散比</t>
+  </si>
+  <si>
+    <t>有意 F</t>
+  </si>
+  <si>
+    <t>係数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>P-値</t>
+  </si>
+  <si>
+    <t>下限 95%</t>
+  </si>
+  <si>
+    <t>上限 95%</t>
+  </si>
+  <si>
+    <t>下限 95.0%</t>
+  </si>
+  <si>
+    <t>上限 95.0%</t>
+  </si>
+  <si>
+    <t>紳士服</t>
+    <rPh sb="0" eb="3">
+      <t>シンシフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -152,6 +289,18 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -173,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -209,13 +358,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,11 +418,69 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -252,6 +491,2803 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>紳士服</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6038</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5383</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5289</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E334-408E-9CB9-94E590FDA191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>子供服</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2362</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2327</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2526</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3482</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E334-408E-9CB9-94E590FDA191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>その他
+衣料品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2392</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2353</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2259</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E334-408E-9CB9-94E590FDA191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="765087528"/>
+        <c:axId val="765088248"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>婦人服</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>20565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20620</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17735</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19660</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19867</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21753</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17182</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E334-408E-9CB9-94E590FDA191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="765374808"/>
+        <c:axId val="765376968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="765087528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765088248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765088248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765087528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="765376968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765374808"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="765374808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="765376968"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>中心化移動平均</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>紳士服</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$X$8:$X$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5874.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5842.2916666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5834.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5812.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5779.2916666666661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5730.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5670.0833333333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5628.0833333333339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5604.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5587.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5551.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5522.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5490.9583333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69DF-4507-8CA0-AECE216BED4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>子供服</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$Z$8:$Z$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2154.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2147.9583333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2159.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2165.2083333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2160.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160.458333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2158.041666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2154.791666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2153.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2150.416666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2143.9583333333335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2143.416666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2142.041666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-69DF-4507-8CA0-AECE216BED4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>その他
+衣料品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$AA$8:$AA$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2593.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2580.916666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2573.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2564.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2551.0833333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2531.791666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2514.458333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2502.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2487.8333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2472.791666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2459.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2447.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2434.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-69DF-4507-8CA0-AECE216BED4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="656052408"/>
+        <c:axId val="656052768"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$W$8:$W$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>28949.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28820.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28773.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28696.416666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28584.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28455.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28363.416666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28314.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28290.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28196.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28122.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28036.708333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69DF-4507-8CA0-AECE216BED4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>データ!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>婦人服</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>データ!$Y$8:$Y$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18326.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18265.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18253.291666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18230.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18205.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18161.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18112.708333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18077.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18067.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18079.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18041.125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17969.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69DF-4507-8CA0-AECE216BED4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="765230800"/>
+        <c:axId val="765229000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="656052408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656052768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656052768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656052408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="765229000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765230800"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="765230800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="765229000"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332831</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D193A91D-3150-7035-50C1-F5A23E6D13E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>297962</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>595923</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5AE6F5-8360-0FCD-BAA4-187B64C90483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,16 +3552,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071A31B1-5B27-4B19-B312-B8B07E555016}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F425C3-7CDA-4C1C-9B0B-03FF81E68047}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" customHeight="1">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.85822818430721104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.73655561633925215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.72510151270182832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2430.5133374089796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>379874773.64357239</v>
+      </c>
+      <c r="D12" s="15">
+        <v>379874773.64357239</v>
+      </c>
+      <c r="E12" s="15">
+        <v>64.30495477033358</v>
+      </c>
+      <c r="F12" s="15">
+        <v>4.1177028844385024E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15">
+        <v>23</v>
+      </c>
+      <c r="C13" s="15">
+        <v>135870086.91642755</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5907395.0833229367</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="16">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16">
+        <v>515744860.55999994</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="15">
+        <v>12656.686041325898</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2044.1728655233446</v>
+      </c>
+      <c r="D17" s="15">
+        <v>6.1915928221097687</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2.5684171081668952E-6</v>
+      </c>
+      <c r="F17" s="15">
+        <v>8427.9922860489169</v>
+      </c>
+      <c r="G17" s="15">
+        <v>16885.37979660288</v>
+      </c>
+      <c r="H17" s="15">
+        <v>8427.9922860489169</v>
+      </c>
+      <c r="I17" s="15">
+        <v>16885.37979660288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2.7974885547502089</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.34885592208329991</v>
+      </c>
+      <c r="D18" s="16">
+        <v>8.0190370226314336</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4.1177028844384799E-8</v>
+      </c>
+      <c r="F18" s="16">
+        <v>2.0758250965928355</v>
+      </c>
+      <c r="G18" s="16">
+        <v>3.5191520129075822</v>
+      </c>
+      <c r="H18" s="16">
+        <v>2.0758250965928355</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3.5191520129075822</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071A31B1-5B27-4B19-B312-B8B07E555016}">
+  <dimension ref="A1:AA40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30.65" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -542,9 +3806,65 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="10.95" customHeight="1">
+    <row r="2" spans="1:27" ht="11" customHeight="1">
       <c r="A2" s="4">
         <v>40360</v>
       </c>
@@ -563,9 +3883,33 @@
       <c r="F2" s="5">
         <v>2939</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="11">
+        <f>B2/B$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>C2/C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2:K17" si="0">D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <f>F2/F$2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="10.95" customHeight="1">
+    <row r="3" spans="1:27" ht="11" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -584,9 +3928,33 @@
       <c r="F3" s="5">
         <v>2209</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="11">
+        <f>B3/B$2</f>
+        <v>0.61393503595338461</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H26" si="1">C3/C$2</f>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.62873814733770972</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58881720430107531</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.75161619598502893</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="10.95" customHeight="1">
+    <row r="4" spans="1:27" ht="11" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -605,9 +3973,33 @@
       <c r="F4" s="5">
         <v>2381</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G26" si="2">B4/B$2</f>
+        <v>0.78607736176543519</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.63418803418803416</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.83408704108922926</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.75096774193548388</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81013950323239192</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="10.95" customHeight="1">
+    <row r="5" spans="1:27" ht="11" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -626,9 +4018,33 @@
       <c r="F5" s="5">
         <v>2869</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0236176543515993</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0268842268842269</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0336980306345733</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98537634408602148</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.97618237495746851</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="10.95" customHeight="1">
+    <row r="6" spans="1:27" ht="11" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -647,9 +4063,33 @@
       <c r="F6" s="5">
         <v>2815</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97532853954872301</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>1.084848484848485</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.95720884998784339</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.85462365591397849</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.95780877849608714</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="10.95" customHeight="1">
+    <row r="7" spans="1:27" ht="11" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -668,9 +4108,33 @@
       <c r="F7" s="5">
         <v>3414</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1004525167369203</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.4155400155400155</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0026744468757598</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0159139784946236</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1616195985028921</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="10.95" customHeight="1">
+    <row r="8" spans="1:27" ht="11" customHeight="1">
       <c r="A8" s="4">
         <v>40544</v>
       </c>
@@ -689,9 +4153,53 @@
       <c r="F8" s="5">
         <v>2514</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0442288618894124</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0763014763014762</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0552881108679795</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0963440860215055</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.85539299081320175</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="W8" s="10">
+        <f t="shared" ref="W7:W13" si="3">(AVERAGE(B2:B13)+AVERAGE(B3:B14))/2</f>
+        <v>28949.041666666664</v>
+      </c>
+      <c r="X8" s="10">
+        <f t="shared" ref="X8:X20" si="4">(AVERAGE(C2:C13)+AVERAGE(C3:C14))/2</f>
+        <v>5874.6666666666661</v>
+      </c>
+      <c r="Y8" s="10">
+        <f t="shared" ref="Y8:Y20" si="5">(AVERAGE(D2:D13)+AVERAGE(D3:D14))/2</f>
+        <v>18326.375</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" ref="Z8:Z20" si="6">(AVERAGE(E2:E13)+AVERAGE(E3:E14))/2</f>
+        <v>2154.3333333333335</v>
+      </c>
+      <c r="AA8" s="10">
+        <f t="shared" ref="AA8:AA20" si="7">(AVERAGE(F2:F13)+AVERAGE(F3:F14))/2</f>
+        <v>2593.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="10.95" customHeight="1">
+    <row r="9" spans="1:27" ht="11" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -710,9 +4218,53 @@
       <c r="F9" s="5">
         <v>2225</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.68922018348623848</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.66340326340326339</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.6820812059324094</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.73763440860215057</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.75706022456617894</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="W9" s="10">
+        <f t="shared" si="3"/>
+        <v>28837</v>
+      </c>
+      <c r="X9" s="10">
+        <f t="shared" si="4"/>
+        <v>5842.2916666666661</v>
+      </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="5"/>
+        <v>18265.666666666668</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" si="6"/>
+        <v>2147.9583333333335</v>
+      </c>
+      <c r="AA9" s="10">
+        <f t="shared" si="7"/>
+        <v>2580.916666666667</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="10.95" customHeight="1">
+    <row r="10" spans="1:27" ht="11" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -731,9 +4283,53 @@
       <c r="F10" s="5">
         <v>2652</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99156955120257873</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.84537684537684543</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99401896425966452</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4873118279569892</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.90234773732562101</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="W10" s="10">
+        <f t="shared" si="3"/>
+        <v>28820.416666666664</v>
+      </c>
+      <c r="X10" s="10">
+        <f t="shared" si="4"/>
+        <v>5834.333333333333</v>
+      </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="5"/>
+        <v>18253.291666666668</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="6"/>
+        <v>2159.3333333333335</v>
+      </c>
+      <c r="AA10" s="10">
+        <f t="shared" si="7"/>
+        <v>2573.333333333333</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="10.95" customHeight="1">
+    <row r="11" spans="1:27" ht="11" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -752,9 +4348,53 @@
       <c r="F11" s="5">
         <v>2392</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.89867964294569802</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.87785547785547791</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.89744711889132023</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0744086021505377</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8138822728819326</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="W11" s="10">
+        <f t="shared" si="3"/>
+        <v>28773.75</v>
+      </c>
+      <c r="X11" s="10">
+        <f t="shared" si="4"/>
+        <v>5812.833333333333</v>
+      </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="5"/>
+        <v>18230.833333333336</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="6"/>
+        <v>2165.2083333333335</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" si="7"/>
+        <v>2564.75</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="10.95" customHeight="1">
+    <row r="12" spans="1:27" ht="11" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -773,9 +4413,53 @@
       <c r="F12" s="5">
         <v>2386</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.86749938011405903</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.89759129759129763</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.862387551665451</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.89978494623655914</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81184076216400136</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="W12" s="10">
+        <f t="shared" si="3"/>
+        <v>28696.416666666668</v>
+      </c>
+      <c r="X12" s="10">
+        <f t="shared" si="4"/>
+        <v>5779.2916666666661</v>
+      </c>
+      <c r="Y12" s="10">
+        <f t="shared" si="5"/>
+        <v>18205.333333333336</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="6"/>
+        <v>2160.5</v>
+      </c>
+      <c r="AA12" s="10">
+        <f t="shared" si="7"/>
+        <v>2551.0833333333335</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="10.95" customHeight="1">
+    <row r="13" spans="1:27" ht="11" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -794,9 +4478,53 @@
       <c r="F13" s="5">
         <v>2400</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.80315521943962309</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.96161616161616159</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.76810114271821051</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.6576344086021505</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81660428717250766</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="W13" s="10">
+        <f t="shared" si="3"/>
+        <v>28584.625</v>
+      </c>
+      <c r="X13" s="10">
+        <f t="shared" si="4"/>
+        <v>5730.375</v>
+      </c>
+      <c r="Y13" s="10">
+        <f t="shared" si="5"/>
+        <v>18161.75</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" si="6"/>
+        <v>2160.458333333333</v>
+      </c>
+      <c r="AA13" s="10">
+        <f t="shared" si="7"/>
+        <v>2531.791666666667</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="10.95" customHeight="1">
+    <row r="14" spans="1:27" ht="11" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -815,9 +4543,68 @@
       <c r="F14" s="5">
         <v>2791</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.94659682618398211</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.91732711732711736</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.95599319231704349</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.94064516129032261</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.94964273562436208</v>
+      </c>
+      <c r="L14" s="10">
+        <f>(B14-B2)/B2*100</f>
+        <v>-5.3403173816017855</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" ref="M14:P26" si="8">(C14-C2)/C2*100</f>
+        <v>-8.2672882672882668</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.4006807682956479</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.935483870967742</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.0357264375637971</v>
+      </c>
+      <c r="W14" s="10">
+        <f>(AVERAGE(B8:B19)+AVERAGE(B9:B20))/2</f>
+        <v>28455.5</v>
+      </c>
+      <c r="X14" s="10">
+        <f t="shared" si="4"/>
+        <v>5670.0833333333339</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="5"/>
+        <v>18112.708333333332</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="6"/>
+        <v>2158.041666666667</v>
+      </c>
+      <c r="AA14" s="10">
+        <f t="shared" si="7"/>
+        <v>2514.458333333333</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="10.95" customHeight="1">
+    <row r="15" spans="1:27" ht="11" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -836,9 +4623,68 @@
       <c r="F15" s="5">
         <v>2055</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.58399454500371928</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.47474747474747475</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.60189642596644788</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58236559139784949</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.69921742089145966</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" ref="L15:L26" si="9">(B15-B3)/B3*100</f>
+        <v>-4.8768174474959611</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="8"/>
+        <v>-7.4242424242424248</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.2691415313225063</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.0956902848794741</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.9714803078315981</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" ref="W15:W26" si="10">(AVERAGE(B9:B20)+AVERAGE(B10:B21))/2</f>
+        <v>28363.416666666668</v>
+      </c>
+      <c r="X15" s="10">
+        <f t="shared" si="4"/>
+        <v>5628.0833333333339</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="5"/>
+        <v>18077.625</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="6"/>
+        <v>2154.791666666667</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="7"/>
+        <v>2502.75</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="10.95" customHeight="1">
+    <row r="16" spans="1:27" ht="11" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -857,9 +4703,68 @@
       <c r="F16" s="5">
         <v>2353</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.80368212248946191</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.64257964257964262</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.84648674933138823</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.87483870967741939</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.80061245321537933</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="9"/>
+        <v>2.2395710117498622</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="8"/>
+        <v>1.3232050967900024</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4866204162537164</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="8"/>
+        <v>16.494845360824741</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.1759764804703907</v>
+      </c>
+      <c r="W16" s="10">
+        <f t="shared" si="10"/>
+        <v>28314.208333333336</v>
+      </c>
+      <c r="X16" s="10">
+        <f t="shared" si="4"/>
+        <v>5604.875</v>
+      </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="5"/>
+        <v>18067.833333333336</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="6"/>
+        <v>2153.5</v>
+      </c>
+      <c r="AA16" s="10">
+        <f t="shared" si="7"/>
+        <v>2487.8333333333335</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="10.95" customHeight="1">
+    <row r="17" spans="1:27" ht="11" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -878,9 +4783,68 @@
       <c r="F17" s="5">
         <v>2691</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97129928093230844</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.93830613830613829</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99508874300996841</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.92215053763440857</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91561755699217418</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="9"/>
+        <v>-5.1111245685217712</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="8"/>
+        <v>-8.6259079903147704</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.7350644463260889</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.4164120471409865</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.2042523527361446</v>
+      </c>
+      <c r="W17" s="10">
+        <f t="shared" si="10"/>
+        <v>28290.541666666664</v>
+      </c>
+      <c r="X17" s="10">
+        <f t="shared" si="4"/>
+        <v>5587.5</v>
+      </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="5"/>
+        <v>18079.708333333336</v>
+      </c>
+      <c r="Z17" s="10">
+        <f t="shared" si="6"/>
+        <v>2150.416666666667</v>
+      </c>
+      <c r="AA17" s="10">
+        <f t="shared" si="7"/>
+        <v>2472.791666666667</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="10.95" customHeight="1">
+    <row r="18" spans="1:27" ht="11" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
@@ -899,9 +4863,68 @@
       <c r="F18" s="5">
         <v>2665</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97012149764443345</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0483294483294483</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" ref="I18:I26" si="11">D18/D$2</f>
+        <v>0.96605883783126667</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" ref="J18:K26" si="12">E18/E$2</f>
+        <v>0.869247311827957</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="12"/>
+        <v>0.9067710105478054</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="9"/>
+        <v>-0.53387568323376133</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.3662799025927517</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="8"/>
+        <v>0.92456184912369821</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="8"/>
+        <v>1.7111222949169602</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.3285968028419184</v>
+      </c>
+      <c r="W18" s="10">
+        <f t="shared" si="10"/>
+        <v>28196.416666666664</v>
+      </c>
+      <c r="X18" s="10">
+        <f t="shared" si="4"/>
+        <v>5551.875</v>
+      </c>
+      <c r="Y18" s="10">
+        <f t="shared" si="5"/>
+        <v>18041.125</v>
+      </c>
+      <c r="Z18" s="10">
+        <f t="shared" si="6"/>
+        <v>2143.9583333333335</v>
+      </c>
+      <c r="AA18" s="10">
+        <f t="shared" si="7"/>
+        <v>2459.375</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" ht="10.95" customHeight="1">
+    <row r="19" spans="1:27" ht="11" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -920,9 +4943,68 @@
       <c r="F19" s="5">
         <v>3101</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="11">
+        <f t="shared" si="2"/>
+        <v>1.022501859657823</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2696192696192696</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="11"/>
+        <v>0.94296134208606852</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="12"/>
+        <v>1.0008602150537635</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="12"/>
+        <v>1.0551207893841443</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="9"/>
+        <v>-7.0835093648781866</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="8"/>
+        <v>-10.308486112635855</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.9553831231813774</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.4817950889077054</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="8"/>
+        <v>-9.1681312243702404</v>
+      </c>
+      <c r="W19" s="10">
+        <f t="shared" si="10"/>
+        <v>28122.375</v>
+      </c>
+      <c r="X19" s="10">
+        <f t="shared" si="4"/>
+        <v>5522.25</v>
+      </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="5"/>
+        <v>18009</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="6"/>
+        <v>2143.416666666667</v>
+      </c>
+      <c r="AA19" s="10">
+        <f t="shared" si="7"/>
+        <v>2447.625</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="10.95" customHeight="1">
+    <row r="20" spans="1:27" ht="11" customHeight="1">
       <c r="A20" s="4">
         <v>40909</v>
       </c>
@@ -941,9 +5023,68 @@
       <c r="F20" s="5">
         <v>2411</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="11">
+        <f t="shared" si="2"/>
+        <v>1.026128192412596</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>0.99735819735819731</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="11"/>
+        <v>1.0577680525164115</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="12"/>
+        <v>1.0864516129032258</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="12"/>
+        <v>0.82034705682204834</v>
+      </c>
+      <c r="L20" s="10">
+        <f>(B20-B8)/B8*100</f>
+        <v>-1.7334006114392568</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="8"/>
+        <v>-7.3346809125036092</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="8"/>
+        <v>0.23500138236107271</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="8"/>
+        <v>-0.90231463318948613</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.0970564836913281</v>
+      </c>
+      <c r="W20" s="10">
+        <f t="shared" si="10"/>
+        <v>28036.708333333336</v>
+      </c>
+      <c r="X20" s="10">
+        <f t="shared" si="4"/>
+        <v>5490.9583333333339</v>
+      </c>
+      <c r="Y20" s="10">
+        <f t="shared" si="5"/>
+        <v>17969.25</v>
+      </c>
+      <c r="Z20" s="10">
+        <f t="shared" si="6"/>
+        <v>2142.041666666667</v>
+      </c>
+      <c r="AA20" s="10">
+        <f t="shared" si="7"/>
+        <v>2434.375</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="10.95" customHeight="1">
+    <row r="21" spans="1:27" ht="11" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -962,9 +5103,64 @@
       <c r="F21" s="5">
         <v>2047</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.63882345648400696</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.58570318570318569</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="11"/>
+        <v>0.63865791393143689</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="12"/>
+        <v>0.71397849462365592</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="12"/>
+        <v>0.6964954066008846</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="9"/>
+        <v>-7.3121374286099741</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="8"/>
+        <v>-11.712344811431247</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.3662935766735584</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.2069970845481048</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="8"/>
+        <v>-8</v>
+      </c>
+      <c r="R21" s="14">
+        <f>(C21-C9)/$B9</f>
+        <v>-2.2485047443450104E-2</v>
+      </c>
+      <c r="S21" s="14">
+        <f t="shared" ref="S21:U21" si="13">(D21-D9)/$B9</f>
+        <v>-4.0158294734001891E-2</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="13"/>
+        <v>-2.4733552187795114E-3</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" si="13"/>
+        <v>-8.0046768898682369E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="10.95" customHeight="1">
+    <row r="22" spans="1:27" ht="11" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -983,9 +5179,64 @@
       <c r="F22" s="5">
         <v>2472</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0053620133895362</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.83651903651903647</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="11"/>
+        <v>1.0260150741551179</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="12"/>
+        <v>1.4976344086021505</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="12"/>
+        <v>0.84110241578768286</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="9"/>
+        <v>1.3909727431857966</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.0477941176470587</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="8"/>
+        <v>3.2188631249388511</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="8"/>
+        <v>0.69404279930595725</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.7873303167420813</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" ref="R22:R26" si="14">(C22-C10)/$B10</f>
+        <v>-1.781695423855964E-3</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" ref="S22:S26" si="15">(D22-D10)/$B10</f>
+        <v>2.0567641910477618E-2</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" ref="T22:T26" si="16">(E22-E10)/$B10</f>
+        <v>7.501875468867217E-4</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" ref="U22:U26" si="17">(F22-F10)/$B10</f>
+        <v>-5.6264066016504122E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" ht="10.95" customHeight="1">
+    <row r="23" spans="1:27" ht="11" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -1004,9 +5255,64 @@
       <c r="F23" s="5">
         <v>2211</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="11">
+        <f t="shared" si="2"/>
+        <v>0.86728242003471356</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.82191142191142186</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="11"/>
+        <v>0.87930950644298567</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="12"/>
+        <v>1.032258064516129</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="12"/>
+        <v>0.75229669955767264</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="9"/>
+        <v>-3.4937058113467838</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.3728093467870419</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="8"/>
+        <v>-2.0210229735587344</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.9231385108086472</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="8"/>
+        <v>-7.5668896321070243</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="14"/>
+        <v>-1.2415933781686497E-2</v>
+      </c>
+      <c r="S23" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.2864286946025177E-2</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="16"/>
+        <v>-3.3798930850146578E-3</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="17"/>
+        <v>-6.2424555957923782E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="10.95" customHeight="1">
+    <row r="24" spans="1:27" ht="11" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1025,9 +5331,64 @@
       <c r="F24" s="5">
         <v>2245</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="11">
+        <f t="shared" si="2"/>
+        <v>0.82888048599057773</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="1"/>
+        <v>0.82066822066822065</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="11"/>
+        <v>0.83549720398735716</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="12"/>
+        <v>0.87526881720430105</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="12"/>
+        <v>0.76386526029261659</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="9"/>
+        <v>-4.4517489013541036</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="8"/>
+        <v>-8.5699445983379494</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.1181279954891457</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="8"/>
+        <v>-2.7246653919694075</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.9094719195305947</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="14"/>
+        <v>-1.7685519311157954E-2</v>
+      </c>
+      <c r="S24" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.9757761977919897E-2</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="16"/>
+        <v>-2.0365143449212189E-3</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" si="17"/>
+        <v>-5.0376933795419632E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" ht="10.95" customHeight="1">
+    <row r="25" spans="1:27" ht="11" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
@@ -1046,9 +5407,64 @@
       <c r="F25" s="5">
         <v>2259</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="11">
+        <f t="shared" si="2"/>
+        <v>0.78669724770642202</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>0.92804972804972807</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="11"/>
+        <v>0.75750060782883544</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="12"/>
+        <v>0.6765591397849462</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="12"/>
+        <v>0.76862878530112289</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="9"/>
+        <v>-2.0491645120209934</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.4906270200387848</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.3800962268928842</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="8"/>
+        <v>2.877697841726619</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.875</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="14"/>
+        <v>-8.3355844556786164E-3</v>
+      </c>
+      <c r="S25" s="14">
+        <f t="shared" si="15"/>
+        <v>-8.4127657932311969E-3</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" si="16"/>
+        <v>1.6979894261567553E-3</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" si="17"/>
+        <v>-5.4412842974568753E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" ht="10.95" customHeight="1">
+    <row r="26" spans="1:27" ht="11" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1067,9 +5483,64 @@
       <c r="F26" s="5">
         <v>2614</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="11">
+        <f t="shared" si="2"/>
+        <v>0.89933052318373419</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.83418803418803422</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="11"/>
+        <v>0.92020423048869437</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="12"/>
+        <v>0.90752688172043006</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="12"/>
+        <v>0.88941816944538954</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="9"/>
+        <v>-4.9932877116007992</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="8"/>
+        <v>-9.0631882093850589</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.7436419125127163</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.5208047553726565</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.3418129702615555</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" si="14"/>
+        <v>-1.7517435578402803E-2</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="15"/>
+        <v>-2.4098752496643856E-2</v>
+      </c>
+      <c r="T26" s="14">
+        <f t="shared" si="16"/>
+        <v>-2.5212010084804033E-3</v>
+      </c>
+      <c r="U26" s="14">
+        <f t="shared" si="17"/>
+        <v>-5.7954880324809274E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" ht="18">
+    <row r="27" spans="1:27" ht="18">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1078,8 +5549,129 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="8">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <f>AVERAGE(E8,E20)</f>
+        <v>2537.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="8">
+        <v>2</v>
+      </c>
+      <c r="B30" s="9">
+        <f t="shared" ref="B30:B34" si="18">AVERAGE(E9,E21)</f>
+        <v>1687.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="8">
+        <v>3</v>
+      </c>
+      <c r="B31" s="9">
+        <f t="shared" si="18"/>
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="8">
+        <v>4</v>
+      </c>
+      <c r="B32" s="9">
+        <f t="shared" si="18"/>
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8">
+        <v>5</v>
+      </c>
+      <c r="B33" s="9">
+        <f t="shared" si="18"/>
+        <v>2063.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="8">
+        <v>6</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" si="18"/>
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8">
+        <v>7</v>
+      </c>
+      <c r="B35" s="9">
+        <f>AVERAGE(E2,E14,E26)</f>
+        <v>2207.3333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="8">
+        <v>8</v>
+      </c>
+      <c r="B36" s="9">
+        <f>AVERAGE(E3,E15)</f>
+        <v>1361.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="8">
+        <v>9</v>
+      </c>
+      <c r="B37" s="9">
+        <f t="shared" ref="B37:B40" si="19">AVERAGE(E4,E16)</f>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="8">
+        <v>10</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="19"/>
+        <v>2217.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8">
+        <v>11</v>
+      </c>
+      <c r="B39" s="9">
+        <f t="shared" si="19"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="8">
+        <v>12</v>
+      </c>
+      <c r="B40" s="9">
+        <f t="shared" si="19"/>
+        <v>2344.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B29:B40">
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L26">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>